--- a/biology/Botanique/Monanthotaxis_letouzeyi/Monanthotaxis_letouzeyi.xlsx
+++ b/biology/Botanique/Monanthotaxis_letouzeyi/Monanthotaxis_letouzeyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monanthotaxis letouzeyi (Le Thomas) Verdc. est une espèce de plantes à fleurs de la famille des Annonaceae, endémique du Cameroun. D'abord décrite par Annick Le Thomas, elle a obtenu son nom actuel de Bernard Verdcourt en 1971[2]. Son basionyme fut Popowia letouzeyi Le Thomas. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monanthotaxis letouzeyi (Le Thomas) Verdc. est une espèce de plantes à fleurs de la famille des Annonaceae, endémique du Cameroun. D'abord décrite par Annick Le Thomas, elle a obtenu son nom actuel de Bernard Verdcourt en 1971. Son basionyme fut Popowia letouzeyi Le Thomas. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique  letouzeyi fait référence au botaniste René Letouzey, auteur d'écrits scientifiques sur les plantes ligneuses du Cameroun, et qui collecta la plante en 1960[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique  letouzeyi fait référence au botaniste René Letouzey, auteur d'écrits scientifiques sur les plantes ligneuses du Cameroun, et qui collecta la plante en 1960. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, relativement rare, c'est une plante des forêts tropicales camerounaises, observée sur plusieurs sites dans la Région de l'Est[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, relativement rare, c'est une plante des forêts tropicales camerounaises, observée sur plusieurs sites dans la Région de l'Est.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monanthotaxis letouzeyi est une liane sur grand arbre, de 25 à 30 cm de long à inflorescence cauliflore. Le dessous des feuilles présente des reflets légèrement bleutés. Les rameaux et dessous des nervures sont à pubescence brune. C'est une espèce voisine de P. cauliflora Chiff, mais à fleurs mâles cauliflores et pubescence hirsute. L'inflorescence femelle est inconnue[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monanthotaxis letouzeyi est une liane sur grand arbre, de 25 à 30 cm de long à inflorescence cauliflore. Le dessous des feuilles présente des reflets légèrement bleutés. Les rameaux et dessous des nervures sont à pubescence brune. C'est une espèce voisine de P. cauliflora Chiff, mais à fleurs mâles cauliflores et pubescence hirsute. L'inflorescence femelle est inconnue
 </t>
         </is>
       </c>
